--- a/biology/Botanique/Symmetrischema_tangolias/Symmetrischema_tangolias.xlsx
+++ b/biology/Botanique/Symmetrischema_tangolias/Symmetrischema_tangolias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Symmetrischema tangolias, la teigne sud-américaine de la pomme de terre, est une espèce de lépidoptères (papillons) de la famille des Gelechiidae. Cet insecte est un ravageur de la pomme de terre dont les chenilles attaquent les tiges et les tubercules tant en culture qu'en période de stockage. Originaire d'Amérique du Sud, sa présence est également attestée en Amérique du Nord, en Australie et en Nouvelle-Zélande.
 Synonymes :
@@ -517,9 +529,11 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Symmetrischema tangolias est originaire des montagnes du Pérou et de la Bolivie. Cette teigne a été signalée pour la première fois au Pérou en 1931. Elle s'est depuis répandue vers le nord : Équateur, Colombie. On l'a également signalée aux États-Unis, en  Australie et en Tasmanie, ainsi qu'en Nouvelle-Zélande[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Symmetrischema tangolias est originaire des montagnes du Pérou et de la Bolivie. Cette teigne a été signalée pour la première fois au Pérou en 1931. Elle s'est depuis répandue vers le nord : Équateur, Colombie. On l'a également signalée aux États-Unis, en  Australie et en Tasmanie, ainsi qu'en Nouvelle-Zélande,.
 </t>
         </is>
       </c>
